--- a/Dokumentaatio/Aikavaativuustestaus.xlsx
+++ b/Dokumentaatio/Aikavaativuustestaus.xlsx
@@ -148,7 +148,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fi-FI"/>
-              <a:t>Aikavaativuudet Prim reitti</a:t>
+              <a:t>Aikavaativuudet Prim (reitti)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -223,7 +223,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -234,11 +234,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -328,7 +328,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -339,11 +339,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent5"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent5"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -433,7 +433,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -444,11 +444,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -721,7 +721,13 @@
                     <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>ns)</a:t>
+                  <a:t>ns</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fi-FI" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>)                           1 sekuntti  - v</a:t>
                 </a:r>
                 <a:endParaRPr lang="fi-FI"/>
               </a:p>
@@ -731,8 +737,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4118862169255869E-2"/>
-              <c:y val="0.39006642688182502"/>
+              <c:x val="1.2766553268062591E-2"/>
+              <c:y val="0.16668083592258162"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -916,7 +922,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="fi-FI"/>
-              <a:t>Aikavaativuudet Prim koko</a:t>
+              <a:t>Aikavaativuudet Prim (koko)</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1609,7 +1615,21 @@
                     <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>ns)</a:t>
+                  <a:t>ns)                     </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fi-FI" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:rPr>
+                  <a:t>  </a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fi-FI" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>    1 sekuntti  - v</a:t>
                 </a:r>
                 <a:endParaRPr lang="fi-FI"/>
               </a:p>
@@ -1619,8 +1639,1587 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4118862169255869E-2"/>
-              <c:y val="0.39006642688182502"/>
+              <c:x val="1.1263720514593064E-2"/>
+              <c:y val="0.1792838518707921"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541880264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fi-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fi-FI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fi-FI"/>
+              <a:t>Aikavaativuudet DFS (koko)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42924539866504252"/>
+          <c:y val="2.0378457059679767E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10575224670791952"/>
+          <c:y val="8.7219331066383785E-2"/>
+          <c:w val="0.84299218273391496"/>
+          <c:h val="0.75324387402603166"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DFS!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DFS!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DFS!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25747</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>157111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1513473</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17218710</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C14B-4B8C-98DF-64B9C5B3662A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DFS!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DFS!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DFS!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16676</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1740801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23189509</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C14B-4B8C-98DF-64B9C5B3662A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DFS!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A-Star</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DFS!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DFS!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1551800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14363797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C14B-4B8C-98DF-64B9C5B3662A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DFS!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DFS!$A$2:$A$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DFS!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15857384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1497417178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177605960617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C14B-4B8C-98DF-64B9C5B3662A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="541880264"/>
+        <c:axId val="541877968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="541880264"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000"/>
+          <c:min val="100"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>Labyrintin koko</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541877968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="541877968"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="1000000000000"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>Vaadittu</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fi-FI" baseline="0"/>
+                  <a:t> aika (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fi-FI" baseline="0">
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>ns)    1 sekuntti  - v</a:t>
+                </a:r>
+                <a:endParaRPr lang="fi-FI"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="1.6973927509596632E-2"/>
+              <c:y val="0.32954471320535633"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541880264"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fi-FI"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fi-FI"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fi-FI"/>
+              <a:t>Aikavaativuudet DFS (reitti)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.42924539866504252"/>
+          <c:y val="2.0378457059679767E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fi-FI"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.8531195377879702E-2"/>
+          <c:y val="6.6276938839750485E-2"/>
+          <c:w val="0.86466933068055996"/>
+          <c:h val="0.75324387402603166"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DFS!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DFS!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DFS!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2633</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16676</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>193098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1740801</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>23189509</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FEC4-42DF-BFD3-6FB44F597C8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DFS!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A-Star</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DFS!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DFS!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4096</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>24869</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>175543</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1551800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14363797</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FEC4-42DF-BFD3-6FB44F597C8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>DFS!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>IDA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>DFS!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1104</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7298</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63376</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>DFS!$E$2:$E$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2340</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>105033</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15857384</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1497417178</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>177605960617</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FEC4-42DF-BFD3-6FB44F597C8F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="541880264"/>
+        <c:axId val="541877968"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="541880264"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:max val="100000"/>
+          <c:min val="10"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>Lyhyimmän reitin pituus</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="fi-FI"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fi-FI"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="541877968"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="541877968"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+          <c:min val="1000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fi-FI"/>
+                  <a:t>Vaadittu</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fi-FI" baseline="0"/>
+                  <a:t> aika (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fi-FI" baseline="0">
+                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>ns)</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="fi-FI" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>      1 sekuntti  - v</a:t>
+                </a:r>
+                <a:endParaRPr lang="fi-FI"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="9.9128145259445091E-3"/>
+              <c:y val="0.3062968661881123"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1770,13 +3369,10 @@
 </file>
 
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
   <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
   <cs:variation/>
   <cs:variation>
     <a:lumMod val="60000"/>
@@ -1846,6 +3442,80 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="13">
+  <a:schemeClr val="accent6"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent4"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2363,6 +4033,1038 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2884,14 +5586,14 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>161925</xdr:colOff>
       <xdr:row>69</xdr:row>
-      <xdr:rowOff>85726</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2946,6 +5648,77 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="171450" y="1428750"/>
+    <xdr:ext cx="8896350" cy="6085417"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Kaavio 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEBF1D5F-1C4A-4CF4-8944-C2980C345213}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Kaavio 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84891D3E-DFF4-4E3D-8BA1-8E7B93C23F57}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3249,7 +6022,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3428,16 +6201,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3544,19 +6317,25 @@
       <c r="A6">
         <v>1000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>10000000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>100000000</v>
+      <c r="B6">
+        <v>17218710</v>
+      </c>
+      <c r="C6">
+        <v>23189509</v>
+      </c>
+      <c r="D6">
+        <v>14363797</v>
+      </c>
+      <c r="E6">
+        <v>177605960617</v>
+      </c>
+      <c r="F6">
+        <v>63376</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3565,12 +6344,15 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -3597,30 +6379,120 @@
       <c r="A2">
         <v>100</v>
       </c>
+      <c r="B2">
+        <v>3219</v>
+      </c>
+      <c r="C2">
+        <v>3510</v>
+      </c>
+      <c r="D2">
+        <v>2926</v>
+      </c>
+      <c r="E2">
+        <v>1463</v>
+      </c>
+      <c r="F2">
+        <v>16</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1000</v>
       </c>
+      <c r="B3">
+        <v>28087</v>
+      </c>
+      <c r="C3">
+        <v>27209</v>
+      </c>
+      <c r="D3">
+        <v>16384</v>
+      </c>
+      <c r="E3">
+        <v>9362</v>
+      </c>
+      <c r="F3">
+        <v>78</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10000</v>
       </c>
+      <c r="B4">
+        <v>290816</v>
+      </c>
+      <c r="C4">
+        <v>249271</v>
+      </c>
+      <c r="D4">
+        <v>110592</v>
+      </c>
+      <c r="E4">
+        <v>136046</v>
+      </c>
+      <c r="F4">
+        <v>344</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100000</v>
       </c>
+      <c r="B5">
+        <v>3416943</v>
+      </c>
+      <c r="C5">
+        <v>2571411</v>
+      </c>
+      <c r="D5">
+        <v>945299</v>
+      </c>
+      <c r="E5">
+        <v>52728697</v>
+      </c>
+      <c r="F5">
+        <v>1406</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1000000</v>
       </c>
+      <c r="B6">
+        <v>78346550</v>
+      </c>
+      <c r="C6">
+        <v>30566407</v>
+      </c>
+      <c r="D6">
+        <v>10854402</v>
+      </c>
+      <c r="E6">
+        <v>4988772862</v>
+      </c>
+      <c r="F6">
+        <v>5560</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000000</v>
+      </c>
+      <c r="B7">
+        <v>1347335025</v>
+      </c>
+      <c r="C7">
+        <v>369800302</v>
+      </c>
+      <c r="D7">
+        <v>124332146</v>
+      </c>
+      <c r="E7">
+        <v>335788654574</v>
+      </c>
+      <c r="F7">
+        <v>19878</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">

--- a/Dokumentaatio/Aikavaativuustestaus.xlsx
+++ b/Dokumentaatio/Aikavaativuustestaus.xlsx
@@ -738,7 +738,7 @@
                   <a:rPr lang="fi-FI" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>) | 1 sekuntti  - v</a:t>
+                  <a:t>) | 1 sekunti  - v</a:t>
                 </a:r>
                 <a:endParaRPr lang="fi-FI"/>
               </a:p>
@@ -952,8 +952,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.42924539866504252"/>
-          <c:y val="2.0378457059679767E-2"/>
+          <c:x val="0.3213369281045752"/>
+          <c:y val="1.3322777777777777E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -992,10 +992,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10575224670791952"/>
-          <c:y val="8.7219331066383785E-2"/>
-          <c:w val="0.84299218273391496"/>
-          <c:h val="0.75324387402603166"/>
+          <c:x val="0.147078125"/>
+          <c:y val="8.7219444444444461E-2"/>
+          <c:w val="0.80953020833333333"/>
+          <c:h val="0.74971611111111114"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1379,6 +1379,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.43560392156862743"/>
+              <c:y val="0.89055166666666663"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1519,7 +1527,7 @@
                     <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>ns)                      1 sekuntti  - v</a:t>
+                  <a:t>ns)   |   1 sekunti  - v</a:t>
                 </a:r>
                 <a:endParaRPr lang="fi-FI"/>
               </a:p>
@@ -1529,8 +1537,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.4118824012094846E-2"/>
-              <c:y val="0.18345776468564115"/>
+              <c:x val="5.8181372549019617E-3"/>
+              <c:y val="0.17287444444444444"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -1613,6 +1621,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35758545751633986"/>
+          <c:y val="0.94046833333333335"/>
+          <c:w val="0.32218202614379082"/>
+          <c:h val="5.9531666666666663E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1723,8 +1741,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.42924539866504252"/>
-          <c:y val="2.0378457059679767E-2"/>
+          <c:x val="0.34105086805555557"/>
+          <c:y val="9.7949999999999999E-3"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1763,10 +1781,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10575224670791952"/>
-          <c:y val="8.7219331066383785E-2"/>
-          <c:w val="0.84299218273391496"/>
-          <c:h val="0.75324387402603166"/>
+          <c:x val="0.14496666666666666"/>
+          <c:y val="9.780277777777778E-2"/>
+          <c:w val="0.79656041666666666"/>
+          <c:h val="0.74971611111111114"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2145,6 +2163,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.46888333333333332"/>
+              <c:y val="0.90113500000000002"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2285,7 +2311,7 @@
                     <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>ns) | 1 sekuntti  - v</a:t>
+                  <a:t>ns)   |   v - 1 sekunti</a:t>
                 </a:r>
                 <a:endParaRPr lang="fi-FI"/>
               </a:p>
@@ -2295,8 +2321,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.1263720514593064E-2"/>
-              <c:y val="0.32745775679793182"/>
+              <c:x val="2.9630718954248366E-3"/>
+              <c:y val="0.1757633333333333"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -2379,6 +2405,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35343513071895427"/>
+          <c:y val="0.94046833333333335"/>
+          <c:w val="0.32218202614379082"/>
+          <c:h val="5.9531666666666663E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2489,8 +2525,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.42924539866504252"/>
-          <c:y val="2.0378457059679767E-2"/>
+          <c:x val="0.35648489583333332"/>
+          <c:y val="1.3322777777777777E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -2529,9 +2565,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10575224670791952"/>
+          <c:x val="0.14543975694444444"/>
           <c:y val="8.7219331066383785E-2"/>
-          <c:w val="0.84299218273391496"/>
+          <c:w val="0.80330468749999995"/>
           <c:h val="0.75324387402603166"/>
         </c:manualLayout>
       </c:layout>
@@ -2916,6 +2952,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41885190972222225"/>
+              <c:y val="0.89407944444444443"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3056,7 +3100,7 @@
                     <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>ns)  | 1 sekuntti  - v</a:t>
+                  <a:t>ns)   |   v - 1 sekunti</a:t>
                 </a:r>
                 <a:endParaRPr lang="fi-FI"/>
               </a:p>
@@ -3066,8 +3110,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.1263720514593064E-2"/>
-              <c:y val="0.32745775679793182"/>
+              <c:x val="2.4442708333333335E-3"/>
+              <c:y val="0.16517999999999999"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3150,6 +3194,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34868454861111114"/>
+          <c:y val="0.94046833333333335"/>
+          <c:w val="0.34231840277777775"/>
+          <c:h val="5.9531666666666663E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3958,7 +4012,7 @@
                   <a:rPr lang="fi-FI" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t> 1 sekuntti  - v</a:t>
+                  <a:t> 1 sekunti  - v</a:t>
                 </a:r>
                 <a:endParaRPr lang="fi-FI"/>
               </a:p>
@@ -6466,7 +6520,7 @@
                     <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>ns) | 1 sekuntti  - v</a:t>
+                  <a:t>ns)    v - 1 sekunti</a:t>
                 </a:r>
                 <a:endParaRPr lang="fi-FI"/>
               </a:p>
@@ -6476,8 +6530,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.6973888888888889E-2"/>
-              <c:y val="0.31631562499999999"/>
+              <c:x val="1.4622037037037038E-2"/>
+              <c:y val="0.117878125"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7222,7 +7276,7 @@
                   <a:rPr lang="fi-FI" sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
                     <a:effectLst/>
                   </a:rPr>
-                  <a:t>      1 sekuntti  - v</a:t>
+                  <a:t>   v - 1 sekunti</a:t>
                 </a:r>
                 <a:endParaRPr lang="fi-FI"/>
               </a:p>
@@ -7232,8 +7286,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="5.2080998696616698E-3"/>
-              <c:y val="0.30629695813090552"/>
+              <c:x val="9.9118518518518522E-3"/>
+              <c:y val="0.11667881944444444"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -7476,10 +7530,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10575224670791952"/>
+          <c:x val="0.15300798611111111"/>
           <c:y val="8.7219331066383785E-2"/>
-          <c:w val="0.84299218273391496"/>
-          <c:h val="0.75324387402603166"/>
+          <c:w val="0.78851909722222224"/>
+          <c:h val="0.73560500000000018"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -7998,7 +8052,7 @@
                     <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>ns)    1 sekuntti  - v</a:t>
+                  <a:t>ns)  |  1 sekunti  - v</a:t>
                 </a:r>
                 <a:endParaRPr lang="fi-FI"/>
               </a:p>
@@ -8008,8 +8062,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.6973927509596632E-2"/>
-              <c:y val="0.32954471320535633"/>
+              <c:x val="6.4684027777777778E-3"/>
+              <c:y val="0.17785027777777782"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8092,6 +8146,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.34720964052287584"/>
+          <c:y val="0.92988500000000018"/>
+          <c:w val="0.32218202614379082"/>
+          <c:h val="5.9531666666666663E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8242,10 +8306,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10575224670791952"/>
+          <c:x val="0.1576313725490196"/>
           <c:y val="8.7219331066383785E-2"/>
-          <c:w val="0.84299218273391496"/>
-          <c:h val="0.75324387402603166"/>
+          <c:w val="0.79111307189542479"/>
+          <c:h val="0.74618833333333334"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -8629,6 +8693,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.44079183006535949"/>
+              <c:y val="0.89055166666666663"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -8769,7 +8841,7 @@
                     <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>ns)    1 sekuntti  - v</a:t>
+                  <a:t>ns)  |  1 sekunti  - v</a:t>
                 </a:r>
                 <a:endParaRPr lang="fi-FI"/>
               </a:p>
@@ -8779,8 +8851,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.6973927509596632E-2"/>
-              <c:y val="0.32954471320535633"/>
+              <c:x val="1.2564062500000001E-2"/>
+              <c:y val="0.18137805555555556"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -8863,6 +8935,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35966062091503259"/>
+          <c:y val="0.93341277777777787"/>
+          <c:w val="0.32218202614379082"/>
+          <c:h val="5.9531666666666663E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -8973,8 +9055,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.42924539866504252"/>
-          <c:y val="2.0378457059679767E-2"/>
+          <c:x val="0.32756241830065363"/>
+          <c:y val="1.3322777777777777E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -9013,10 +9095,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10575224670791952"/>
+          <c:x val="0.15313767361111111"/>
           <c:y val="8.7219331066383785E-2"/>
-          <c:w val="0.84299218273391496"/>
-          <c:h val="0.75324387402603166"/>
+          <c:w val="0.78838940972222227"/>
+          <c:h val="0.74266055555555566"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -9395,6 +9477,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47614640522875817"/>
+              <c:y val="0.89055166666666663"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9535,7 +9625,7 @@
                     <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>ns)                     1 sekuntti  - v</a:t>
+                  <a:t>ns)  |  1 sekunti  - v</a:t>
                 </a:r>
                 <a:endParaRPr lang="fi-FI"/>
               </a:p>
@@ -9545,8 +9635,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="1.1263720514593064E-2"/>
-              <c:y val="0.18345776468564115"/>
+              <c:x val="9.1885620915032676E-3"/>
+              <c:y val="0.17287444444444444"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -9629,6 +9719,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.35758545751633986"/>
+          <c:y val="0.94046833333333335"/>
+          <c:w val="0.32218202614379082"/>
+          <c:h val="5.9531666666666663E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -16547,8 +16647,8 @@
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8896350" cy="6085417"/>
+    <xdr:pos x="22860" y="22860"/>
+    <xdr:ext cx="5760000" cy="3600000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Kaavio 2">
@@ -16575,8 +16675,8 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="6400800"/>
-    <xdr:ext cx="8896350" cy="6085417"/>
+    <xdr:pos x="5844540" y="38100"/>
+    <xdr:ext cx="5760000" cy="3600000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Kaavio 3">
@@ -16608,8 +16708,8 @@
 <file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8896350" cy="6085417"/>
+    <xdr:pos x="22860" y="30480"/>
+    <xdr:ext cx="5760000" cy="3600000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Kaavio 1">
@@ -16636,8 +16736,8 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="0" y="6217920"/>
-    <xdr:ext cx="8896350" cy="6085417"/>
+    <xdr:pos x="5836920" y="30480"/>
+    <xdr:ext cx="5760000" cy="3600000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Kaavio 2">
@@ -16669,8 +16769,8 @@
 <file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
-    <xdr:pos x="213360" y="388620"/>
-    <xdr:ext cx="8896350" cy="6085417"/>
+    <xdr:pos x="45720" y="53340"/>
+    <xdr:ext cx="5760000" cy="3600000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Kaavio 1">
@@ -16697,8 +16797,8 @@
     <xdr:clientData/>
   </xdr:absoluteAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="228600" y="6568440"/>
-    <xdr:ext cx="8896350" cy="6085417"/>
+    <xdr:pos x="5844540" y="60960"/>
+    <xdr:ext cx="5760000" cy="3600000"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Kaavio 2">
@@ -17026,8 +17126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="B6" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17371,7 +17471,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+      <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17510,8 +17610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17525,8 +17625,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17540,8 +17640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Dokumentaatio/Aikavaativuustestaus.xlsx
+++ b/Dokumentaatio/Aikavaativuustestaus.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Joonas\Documents\GitHub\labyrintin-ratkaisija\Dokumentaatio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\labyrintin-ratkaisija\Dokumentaatio\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12216" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Prim" sheetId="1" r:id="rId1"/>
@@ -189,7 +189,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -618,7 +618,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -656,7 +656,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541877968"/>
@@ -777,7 +777,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -815,7 +815,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541880264"/>
@@ -867,7 +867,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -897,7 +897,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fi-FI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -981,7 +981,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1412,7 +1412,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1450,7 +1450,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541877968"/>
@@ -1566,7 +1566,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1604,7 +1604,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541880264"/>
@@ -1656,7 +1656,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1686,7 +1686,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fi-FI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1770,7 +1770,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2196,7 +2196,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2234,7 +2234,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541877968"/>
@@ -2350,7 +2350,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2388,7 +2388,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541880264"/>
@@ -2440,7 +2440,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2470,7 +2470,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fi-FI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2554,7 +2554,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2985,7 +2985,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3023,7 +3023,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541877968"/>
@@ -3139,7 +3139,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3177,7 +3177,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541880264"/>
@@ -3229,7 +3229,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3259,7 +3259,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fi-FI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3343,7 +3343,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3891,7 +3891,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3929,7 +3929,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541877968"/>
@@ -4051,7 +4051,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4089,7 +4089,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541880264"/>
@@ -4141,7 +4141,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -4171,7 +4171,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fi-FI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4255,7 +4255,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4772,7 +4772,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4810,7 +4810,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541877968"/>
@@ -4926,7 +4926,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4964,7 +4964,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541880264"/>
@@ -5016,7 +5016,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5046,7 +5046,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fi-FI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5130,7 +5130,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5541,7 +5541,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5579,7 +5579,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541877968"/>
@@ -5700,7 +5700,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5738,7 +5738,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541880264"/>
@@ -5790,7 +5790,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5820,7 +5820,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fi-FI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5904,7 +5904,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6405,7 +6405,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6443,7 +6443,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541877968"/>
@@ -6559,7 +6559,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6597,7 +6597,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541880264"/>
@@ -6649,7 +6649,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6679,7 +6679,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fi-FI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6763,7 +6763,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7156,7 +7156,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7194,7 +7194,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541877968"/>
@@ -7315,7 +7315,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7353,7 +7353,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541880264"/>
@@ -7405,7 +7405,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7435,7 +7435,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fi-FI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7519,7 +7519,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7937,7 +7937,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7975,7 +7975,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541877968"/>
@@ -8091,7 +8091,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8129,7 +8129,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541880264"/>
@@ -8181,7 +8181,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8211,7 +8211,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fi-FI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8295,7 +8295,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8726,7 +8726,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8764,7 +8764,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541877968"/>
@@ -8880,7 +8880,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -8918,7 +8918,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541880264"/>
@@ -8970,7 +8970,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9000,7 +9000,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fi-FI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9084,7 +9084,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -9510,7 +9510,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9548,7 +9548,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541877968"/>
@@ -9664,7 +9664,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="fi-FI"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -9702,7 +9702,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="fi-FI"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="541880264"/>
@@ -9754,7 +9754,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="fi-FI"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -9784,7 +9784,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="fi-FI"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -16435,16 +16435,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>125730</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>135255</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>118110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>39330</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>48855</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>140610</xdr:rowOff>
+      <xdr:rowOff>64410</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16472,8 +16472,8 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:absoluteAnchor>
-    <xdr:pos x="70486" y="1638300"/>
-    <xdr:ext cx="5400000" cy="2880000"/>
+    <xdr:pos x="70486" y="1638299"/>
+    <xdr:ext cx="5400000" cy="3000375"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="17" name="Kaavio 16">
@@ -17126,18 +17126,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17157,7 +17157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -17177,7 +17177,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -17197,7 +17197,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -17217,7 +17217,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100000</v>
       </c>
@@ -17237,7 +17237,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1000000</v>
       </c>
@@ -17257,7 +17257,7 @@
         <v>2260</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000000</v>
       </c>
@@ -17277,7 +17277,7 @@
         <v>7098</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>100000000</v>
       </c>
@@ -17312,15 +17312,15 @@
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17340,7 +17340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -17360,7 +17360,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -17380,7 +17380,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100000</v>
       </c>
@@ -17420,7 +17420,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1000000</v>
       </c>
@@ -17440,7 +17440,7 @@
         <v>5560</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>10000000</v>
       </c>
@@ -17474,13 +17474,13 @@
       <selection activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>100</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1000</v>
       </c>
@@ -17540,7 +17540,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>10000</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>100000</v>
       </c>
@@ -17580,7 +17580,7 @@
         <v>7298</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1000000</v>
       </c>
@@ -17614,7 +17614,7 @@
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17629,7 +17629,7 @@
       <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -17640,11 +17640,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
